--- a/biology/Biochimie/Pharmaco-épidémiologie/Pharmaco-épidémiologie.xlsx
+++ b/biology/Biochimie/Pharmaco-épidémiologie/Pharmaco-épidémiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pharmaco-%C3%A9pid%C3%A9miologie</t>
+          <t>Pharmaco-épidémiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmaco-épidémiologie est une discipline mettant en application les méthodes et/ou le raisonnement épidémiologique pour évaluer, généralement sur de grandes populations, l'efficacité, le risque, le bénéfice et l'usage des médicaments en vie réelle.
 La pharmaco-épidémiologie est une fusion du terme pharmacologie, l'étude des interactions entre les médicaments et les organismes vivants, et du terme épidémiologie, l'étude de la fréquence et des causes des maladies ou tout autre facteur susceptible d'exercer une influence sur leur fréquence et leur distribution.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pharmaco-%C3%A9pid%C3%A9miologie</t>
+          <t>Pharmaco-épidémiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Molécules d'efficacité comparable de plus en plus nombreuses
 Affaires : DES (1976), Thalidomide (1962)
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pharmaco-%C3%A9pid%C3%A9miologie</t>
+          <t>Pharmaco-épidémiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Vie du médicament après sa commercialisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le médicament à l'épreuve du corps médical et des malades :
 Conditions d'utilisation non expérimentales
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pharmaco-%C3%A9pid%C3%A9miologie</t>
+          <t>Pharmaco-épidémiologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,9 +608,11 @@
           <t>Études en pharmaco-épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pour être au plus proche de ce qui se pratique dans la « vraie vie », les études pharmaco-épidémiologiques[1] sont observationnelles car elles supposent le moins possible d’interventions sur :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pour être au plus proche de ce qui se pratique dans la « vraie vie », les études pharmaco-épidémiologiques sont observationnelles car elles supposent le moins possible d’interventions sur :
 le choix du traitement (Intérêt des bases de données) ;
 le suivi des sujets traités par un médicament (visites et examens non imposés) ;
 les coprescriptions.
